--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H2">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9623583333333334</v>
+        <v>0.4214143333333333</v>
       </c>
       <c r="N2">
-        <v>2.887075</v>
+        <v>1.264243</v>
       </c>
       <c r="O2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="P2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="Q2">
-        <v>0.3362807218500001</v>
+        <v>0.04796453659133333</v>
       </c>
       <c r="R2">
-        <v>3.02652649665</v>
+        <v>0.431680829322</v>
       </c>
       <c r="S2">
-        <v>5.785025477043918E-05</v>
+        <v>7.862674335755441E-06</v>
       </c>
       <c r="T2">
-        <v>5.785025477043918E-05</v>
+        <v>7.862674335755441E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H3">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I3">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J3">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>12.12890133333333</v>
       </c>
       <c r="N3">
-        <v>36.38670399999999</v>
+        <v>36.386704</v>
       </c>
       <c r="O3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="P3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
       <c r="Q3">
-        <v>4.238250508511999</v>
+        <v>1.380487291957333</v>
       </c>
       <c r="R3">
-        <v>38.144254576608</v>
+        <v>12.424385627616</v>
       </c>
       <c r="S3">
-        <v>0.0007291047501906109</v>
+        <v>0.0002262989027453819</v>
       </c>
       <c r="T3">
-        <v>0.0007291047501906109</v>
+        <v>0.000226298902745382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H4">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I4">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J4">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.484187</v>
+        <v>4.762423333333333</v>
       </c>
       <c r="N4">
-        <v>10.452561</v>
+        <v>14.28727</v>
       </c>
       <c r="O4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="P4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="Q4">
-        <v>1.217493400158</v>
+        <v>0.5420494989533333</v>
       </c>
       <c r="R4">
-        <v>10.957440601422</v>
+        <v>4.87844549058</v>
       </c>
       <c r="S4">
-        <v>0.0002094449631040262</v>
+        <v>8.885645493548997E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002094449631040262</v>
+        <v>8.885645493548997E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I5">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J5">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9623583333333334</v>
+        <v>0.4214143333333333</v>
       </c>
       <c r="N5">
-        <v>2.887075</v>
+        <v>1.264243</v>
       </c>
       <c r="O5">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="P5">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="Q5">
-        <v>335.8413744753667</v>
+        <v>147.0641070255747</v>
       </c>
       <c r="R5">
-        <v>3022.5723702783</v>
+        <v>1323.576963230172</v>
       </c>
       <c r="S5">
-        <v>0.05777467399549781</v>
+        <v>0.02410775256462524</v>
       </c>
       <c r="T5">
-        <v>0.05777467399549781</v>
+        <v>0.02410775256462524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I6">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J6">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>12.12890133333333</v>
       </c>
       <c r="N6">
-        <v>36.38670399999999</v>
+        <v>36.386704</v>
       </c>
       <c r="O6">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="P6">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
       <c r="Q6">
-        <v>4232.71327692849</v>
+        <v>4232.713276928491</v>
       </c>
       <c r="R6">
         <v>38094.41949235641</v>
       </c>
       <c r="S6">
-        <v>0.7281521821811611</v>
+        <v>0.6938552609539935</v>
       </c>
       <c r="T6">
-        <v>0.7281521821811611</v>
+        <v>0.6938552609539935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I7">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J7">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.484187</v>
+        <v>4.762423333333333</v>
       </c>
       <c r="N7">
-        <v>10.452561</v>
+        <v>14.28727</v>
       </c>
       <c r="O7">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="P7">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="Q7">
-        <v>1215.902757298516</v>
+        <v>1661.978436410787</v>
       </c>
       <c r="R7">
-        <v>10943.12481568664</v>
+        <v>14957.80592769708</v>
       </c>
       <c r="S7">
-        <v>0.2091713253701599</v>
+        <v>0.2724428531413607</v>
       </c>
       <c r="T7">
-        <v>0.2091713253701599</v>
+        <v>0.2724428531413607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H8">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I8">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J8">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9623583333333334</v>
+        <v>0.4214143333333333</v>
       </c>
       <c r="N8">
-        <v>2.887075</v>
+        <v>1.264243</v>
       </c>
       <c r="O8">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="P8">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="Q8">
-        <v>1.318062012638889</v>
+        <v>1.376656116245333</v>
       </c>
       <c r="R8">
-        <v>11.86255811375</v>
+        <v>12.389905046208</v>
       </c>
       <c r="S8">
-        <v>0.0002267457462768544</v>
+        <v>0.0002256708702637348</v>
       </c>
       <c r="T8">
-        <v>0.0002267457462768544</v>
+        <v>0.0002256708702637347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H9">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I9">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J9">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>12.12890133333333</v>
       </c>
       <c r="N9">
-        <v>36.38670399999999</v>
+        <v>36.386704</v>
       </c>
       <c r="O9">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="P9">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
       <c r="Q9">
-        <v>16.61194541448889</v>
+        <v>39.62211268846933</v>
       </c>
       <c r="R9">
-        <v>149.5075087304</v>
+        <v>356.599014196224</v>
       </c>
       <c r="S9">
-        <v>0.002857747149982248</v>
+        <v>0.006495127248249679</v>
       </c>
       <c r="T9">
-        <v>0.002857747149982249</v>
+        <v>0.006495127248249678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H10">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I10">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J10">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.484187</v>
+        <v>4.762423333333333</v>
       </c>
       <c r="N10">
-        <v>10.452561</v>
+        <v>14.28727</v>
       </c>
       <c r="O10">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="P10">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="Q10">
-        <v>4.772000584983333</v>
+        <v>15.55765594901333</v>
       </c>
       <c r="R10">
-        <v>42.94800526485</v>
+        <v>140.01890354112</v>
       </c>
       <c r="S10">
-        <v>0.0008209255888570068</v>
+        <v>0.00255031718949043</v>
       </c>
       <c r="T10">
-        <v>0.0008209255888570068</v>
+        <v>0.00255031718949043</v>
       </c>
     </row>
   </sheetData>
